--- a/SchedulingData/static6/pso/scheduling1_13.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.24</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.776</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>46.84</v>
+        <v>88.42</v>
       </c>
       <c r="E3" t="n">
-        <v>26.516</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="4">
@@ -504,112 +504,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46.84</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>113.84</v>
+        <v>53.6</v>
       </c>
       <c r="E4" t="n">
-        <v>21.956</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44.24</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>118.6</v>
+        <v>64.34</v>
       </c>
       <c r="E5" t="n">
-        <v>21.94</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118.6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>176.9</v>
+        <v>57.6</v>
       </c>
       <c r="E6" t="n">
-        <v>18.22</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>113.84</v>
+        <v>64.34</v>
       </c>
       <c r="D7" t="n">
-        <v>162.74</v>
+        <v>113.46</v>
       </c>
       <c r="E7" t="n">
-        <v>19.196</v>
+        <v>21.464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="D8" t="n">
-        <v>79.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="E8" t="n">
-        <v>25.2</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="D9" t="n">
-        <v>152.06</v>
+        <v>168.54</v>
       </c>
       <c r="E9" t="n">
-        <v>20.104</v>
+        <v>20.556</v>
       </c>
     </row>
     <row r="10">
@@ -618,55 +618,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>113.46</v>
       </c>
       <c r="D10" t="n">
-        <v>93.12</v>
+        <v>175.82</v>
       </c>
       <c r="E10" t="n">
-        <v>24.848</v>
+        <v>16.368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>168.54</v>
       </c>
       <c r="D11" t="n">
-        <v>64.04000000000001</v>
+        <v>212.12</v>
       </c>
       <c r="E11" t="n">
-        <v>25.776</v>
+        <v>17.828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93.12</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>155.76</v>
+        <v>146.54</v>
       </c>
       <c r="E12" t="n">
-        <v>20.704</v>
+        <v>21.136</v>
       </c>
     </row>
     <row r="13">
@@ -675,55 +675,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>152.06</v>
+        <v>57.6</v>
       </c>
       <c r="D13" t="n">
-        <v>209.46</v>
+        <v>134.1</v>
       </c>
       <c r="E13" t="n">
-        <v>16.984</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>64.04000000000001</v>
+        <v>134.1</v>
       </c>
       <c r="D14" t="n">
-        <v>119.18</v>
+        <v>171.74</v>
       </c>
       <c r="E14" t="n">
-        <v>22.872</v>
+        <v>17.276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>212.12</v>
       </c>
       <c r="D15" t="n">
-        <v>63.68</v>
+        <v>286.76</v>
       </c>
       <c r="E15" t="n">
-        <v>27.272</v>
+        <v>13.964</v>
       </c>
     </row>
     <row r="16">
@@ -732,302 +732,302 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>119.18</v>
+        <v>146.54</v>
       </c>
       <c r="D16" t="n">
-        <v>183.1</v>
+        <v>205.74</v>
       </c>
       <c r="E16" t="n">
-        <v>18.6</v>
+        <v>18.816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>183.1</v>
+        <v>171.74</v>
       </c>
       <c r="D17" t="n">
-        <v>250.46</v>
+        <v>231</v>
       </c>
       <c r="E17" t="n">
-        <v>13.504</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>250.46</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>317.54</v>
+        <v>81.34</v>
       </c>
       <c r="E18" t="n">
-        <v>9.916</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>63.68</v>
+        <v>88.42</v>
       </c>
       <c r="D19" t="n">
-        <v>144.28</v>
+        <v>161.76</v>
       </c>
       <c r="E19" t="n">
-        <v>21.812</v>
+        <v>22.584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>176.9</v>
+        <v>231</v>
       </c>
       <c r="D20" t="n">
-        <v>245.02</v>
+        <v>274.92</v>
       </c>
       <c r="E20" t="n">
-        <v>15.028</v>
+        <v>10.708</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>144.28</v>
+        <v>286.76</v>
       </c>
       <c r="D21" t="n">
-        <v>198.22</v>
+        <v>331.04</v>
       </c>
       <c r="E21" t="n">
-        <v>17.548</v>
+        <v>11.156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>209.46</v>
+        <v>331.04</v>
       </c>
       <c r="D22" t="n">
-        <v>243.58</v>
+        <v>409.32</v>
       </c>
       <c r="E22" t="n">
-        <v>14.212</v>
+        <v>7.908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>243.58</v>
+        <v>175.82</v>
       </c>
       <c r="D23" t="n">
-        <v>292.4</v>
+        <v>238.36</v>
       </c>
       <c r="E23" t="n">
-        <v>11.44</v>
+        <v>12.224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>162.74</v>
+        <v>81.34</v>
       </c>
       <c r="D24" t="n">
-        <v>214.44</v>
+        <v>138.44</v>
       </c>
       <c r="E24" t="n">
-        <v>15.656</v>
+        <v>21.916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>155.76</v>
+        <v>161.76</v>
       </c>
       <c r="D25" t="n">
-        <v>208.86</v>
+        <v>218.46</v>
       </c>
       <c r="E25" t="n">
-        <v>17.024</v>
+        <v>19.024</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>208.86</v>
+        <v>274.92</v>
       </c>
       <c r="D26" t="n">
-        <v>278.4</v>
+        <v>342.84</v>
       </c>
       <c r="E26" t="n">
-        <v>13.16</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>278.4</v>
+        <v>205.74</v>
       </c>
       <c r="D27" t="n">
-        <v>351.88</v>
+        <v>249.86</v>
       </c>
       <c r="E27" t="n">
-        <v>9.912000000000001</v>
+        <v>16.044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>245.02</v>
+        <v>238.36</v>
       </c>
       <c r="D28" t="n">
-        <v>309.02</v>
+        <v>292.86</v>
       </c>
       <c r="E28" t="n">
-        <v>11.228</v>
+        <v>9.904</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>292.4</v>
+        <v>138.44</v>
       </c>
       <c r="D29" t="n">
-        <v>368.54</v>
+        <v>186.54</v>
       </c>
       <c r="E29" t="n">
-        <v>7.436</v>
+        <v>18.236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>198.22</v>
+        <v>292.86</v>
       </c>
       <c r="D30" t="n">
-        <v>272.48</v>
+        <v>344.88</v>
       </c>
       <c r="E30" t="n">
-        <v>13.752</v>
+        <v>7.312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>214.44</v>
+        <v>344.88</v>
       </c>
       <c r="D31" t="n">
-        <v>286.18</v>
+        <v>423.88</v>
       </c>
       <c r="E31" t="n">
-        <v>12.072</v>
+        <v>4.012</v>
       </c>
     </row>
     <row r="32">
@@ -1036,245 +1036,245 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>317.54</v>
+        <v>249.86</v>
       </c>
       <c r="D32" t="n">
-        <v>388.98</v>
+        <v>287.46</v>
       </c>
       <c r="E32" t="n">
-        <v>6.892</v>
+        <v>12.924</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>286.18</v>
+        <v>218.46</v>
       </c>
       <c r="D33" t="n">
-        <v>369.5</v>
+        <v>266.16</v>
       </c>
       <c r="E33" t="n">
-        <v>7.86</v>
+        <v>15.384</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>309.02</v>
+        <v>287.46</v>
       </c>
       <c r="D34" t="n">
-        <v>389.16</v>
+        <v>340.9</v>
       </c>
       <c r="E34" t="n">
-        <v>6.804</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>351.88</v>
+        <v>340.9</v>
       </c>
       <c r="D35" t="n">
-        <v>420.88</v>
+        <v>394.06</v>
       </c>
       <c r="E35" t="n">
-        <v>4.632</v>
+        <v>6.004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>272.48</v>
+        <v>423.88</v>
       </c>
       <c r="D36" t="n">
-        <v>335.28</v>
+        <v>480.36</v>
       </c>
       <c r="E36" t="n">
-        <v>10.092</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>335.28</v>
+        <v>480.36</v>
       </c>
       <c r="D37" t="n">
-        <v>406.78</v>
+        <v>549.35</v>
       </c>
       <c r="E37" t="n">
-        <v>5.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>406.78</v>
+        <v>342.84</v>
       </c>
       <c r="D38" t="n">
-        <v>452.96</v>
+        <v>406.14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.544</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>388.98</v>
+        <v>406.14</v>
       </c>
       <c r="D39" t="n">
-        <v>450.78</v>
+        <v>508.77</v>
       </c>
       <c r="E39" t="n">
-        <v>3.332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>368.54</v>
+        <v>266.16</v>
       </c>
       <c r="D40" t="n">
-        <v>441.78</v>
+        <v>345.06</v>
       </c>
       <c r="E40" t="n">
-        <v>4.212</v>
+        <v>11.584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>389.16</v>
+        <v>186.54</v>
       </c>
       <c r="D41" t="n">
-        <v>462.42</v>
+        <v>270.34</v>
       </c>
       <c r="E41" t="n">
-        <v>3.108</v>
+        <v>13.436</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>441.78</v>
+        <v>549.35</v>
       </c>
       <c r="D42" t="n">
-        <v>490.98</v>
+        <v>596.75</v>
       </c>
       <c r="E42" t="n">
-        <v>1.892</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>490.98</v>
+        <v>345.06</v>
       </c>
       <c r="D43" t="n">
-        <v>598.5</v>
+        <v>429.52</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>6.748</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>369.5</v>
+        <v>429.52</v>
       </c>
       <c r="D44" t="n">
-        <v>451.4</v>
+        <v>484.86</v>
       </c>
       <c r="E44" t="n">
-        <v>3.78</v>
+        <v>3.844</v>
       </c>
     </row>
     <row r="45">
@@ -1283,74 +1283,74 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450.78</v>
+        <v>394.06</v>
       </c>
       <c r="D45" t="n">
-        <v>535.62</v>
+        <v>469.8</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>535.62</v>
+        <v>409.32</v>
       </c>
       <c r="D46" t="n">
-        <v>608.42</v>
+        <v>481.38</v>
       </c>
       <c r="E46" t="n">
-        <v>26.36</v>
+        <v>2.812</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>462.42</v>
+        <v>469.8</v>
       </c>
       <c r="D47" t="n">
-        <v>541.4</v>
+        <v>531.76</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>541.4</v>
+        <v>531.76</v>
       </c>
       <c r="D48" t="n">
-        <v>612.8</v>
+        <v>571</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="49">
@@ -1359,33 +1359,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>452.96</v>
+        <v>270.34</v>
       </c>
       <c r="D49" t="n">
-        <v>497.46</v>
+        <v>341.24</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224</v>
+        <v>7.976</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>497.46</v>
+        <v>481.38</v>
       </c>
       <c r="D50" t="n">
-        <v>568.91</v>
+        <v>557.46</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1397,74 +1397,55 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>451.4</v>
+        <v>557.46</v>
       </c>
       <c r="D51" t="n">
-        <v>520.2</v>
+        <v>639.84</v>
       </c>
       <c r="E51" t="n">
-        <v>0.48</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>520.2</v>
+        <v>341.24</v>
       </c>
       <c r="D52" t="n">
-        <v>596.24</v>
+        <v>416.48</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>608.42</v>
+        <v>508.77</v>
       </c>
       <c r="D53" t="n">
-        <v>650.54</v>
+        <v>577.59</v>
       </c>
       <c r="E53" t="n">
-        <v>23.768</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>pond29</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>596.24</v>
-      </c>
-      <c r="D54" t="n">
-        <v>649.1799999999999</v>
-      </c>
-      <c r="E54" t="n">
-        <v>26.876</v>
+        <v>25.788</v>
       </c>
     </row>
   </sheetData>
